--- a/biology/Zoologie/Achaearanea/Achaearanea.xlsx
+++ b/biology/Zoologie/Achaearanea/Achaearanea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Achaearanea est un genre d'araignées aranéomorphes de la famille des Theridiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Achaearanea est un genre d'araignées aranéomorphes de la famille des Theridiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Asie, en Afrique, en Amérique et en Océanie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Asie, en Afrique, en Amérique et en Océanie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 23.5, 28/08/2022)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 23.5, 28/08/2022) :
 Achaearanea alboinsignita Locket, 1980
 Achaearanea baltoformis Yin &amp; Peng, 2012
 Achaearanea biarclata Yin &amp; Bao, 2012
@@ -572,7 +588,7 @@
 Achaearanea tingo Levi, 1963
 Achaearanea trapezoidalis (Taczanowski, 1873)
 Achaearanea triangularis Patel, 2005
-Selon World Spider Catalog (version 20.5, 2020)[3] :
+Selon World Spider Catalog (version 20.5, 2020) :
 † Achaearanea extincta Wunderlich, 1988</t>
         </is>
       </c>
@@ -601,9 +617,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Achaea[4] O. Pickard-Cambridge, 1882 préoccupé par Achaea Hübner, 1823 a été remplacé par Achaearanea par Strand en 1929[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Achaea O. Pickard-Cambridge, 1882 préoccupé par Achaea Hübner, 1823 a été remplacé par Achaearanea par Strand en 1929.
 </t>
         </is>
       </c>
@@ -632,7 +650,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Strand, 1929 : « Zoological and palaeontological nomenclatorical notes. » Acta Universitatis Latviensis, vol. 20, p. 1-29.
 O. Pickard-Cambridge, 1882 : « On new genera and species of Araneidea. » Proceedings of the Zoological Society of London, vol. 1882, p. 423-442 (texte intégral).</t>
